--- a/medicine/Sexualité et sexologie/Union_libre/Union_libre.xlsx
+++ b/medicine/Sexualité et sexologie/Union_libre/Union_libre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'union libre ou libre union est, en l'absence de régulation par la loi, et sans aucune reconnaissance religieuse ou civile, une union entre deux personnes dont l'amour est échangé librement.
 </t>
@@ -511,17 +523,13 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme est utilisé depuis la fin du XIXe siècle pour décrire l’ouverture d’une relation libre d’amour partagé qui considère comme une forme d'esclavage l’idée d’un mariage idéal pour les humains.
 Fidèle à la notion de la servitude et à la remise en grâce du mariage qui ont servi à la naissance de cette idée, la libre union n’est pour autant pas un manque de considération du mariage. Une relation permettant à des adultes de s'unir est légitimement un enrichissement relationnel qui est selon ce concept respectée.
 Une grande partie de la tradition de l'anarchisme civique qui recherche la non-ingérence de l’institution religieuse ou de l'État civil dans les relations humaines, a permis l’ouverture du concept d’union libre.
-Distinction entre concubinage et union libre
-Dans le droit français actuel, le concubinage fait l'objet d'une définition restrictivement relative et bénéficie d'un régime juridique, social et fiscal (limité toutefois).
-Le droit à l’union libre n’est pas actuellement notifié : elle ne fait pas l'objet de texte, ni pour l’interdire, ni pour l'autoriser, ni pour la définir.
-Toujours selon ce concept en France, toute personne majeure non unie ou bien unie par un contrat de PaCS ou par le mariage, peut construire sa vie dans la liberté de la façon dont elle la considère, avec une égale liberté de la forme de la relation amoureuse et du nombre de personnes de partage. Sont comprises les relations sexuelles, dès lors que celles-ci font l'objet d'un consentement mutuel. Ce fait, en l’état, peut être qualifié d'« union libre amoureuse ». Ce fondement est modeste et ne peut pas prétendre à apporter de la valeur.
-Position de l'Église catholique
-Contrairement à une opinion populaire, n’est pas excommuniée une personne catholique divorcée vivant en union libre. Elle ne peut cependant pas recevoir les sacrements, ce qui introduit de facto une interdiction de communier. L'Église n'« [admet] pas aux sacrements les divorcés remariés, parce que leur état et leur condition de vie contredisent objectivement l'union d'amour entre le Christ et l'Église, qui est signifiée et mise en œuvre dans l'Eucharistie. Toutefois, les divorcés remariés, malgré leur situation, continuent d'appartenir à l'Église »[1].
 </t>
         </is>
       </c>
@@ -547,25 +555,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Historique</t>
+          <t>Concept</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contrat de mariage par devant nature
-En septembre 1787, « Contrat de mariage par devant nature » est le titre d'un conte adressé par Sylvain Maréchal à Lucile Duplessis (la future femme de Camille Desmoulins), alors âgée de dix-sept ans et dont il est amoureux : « Là, sans prêtres et sans notaire, / Sur un autel de gazon frais. / Au milieu d'un bois solitaire, / Ils s'unirent à peu de frais »[2],[3],[4]. Lucile le recopiera dans son cahier[5].
-L’utopiste et socialiste  gallois Robert Owen (1771-1858) propose une anticipation de l’union libre et utilise également les écrits de Sylvain Marechal « contrat de mariage par devant nature » car il considère le concept exclusif du mariage comme une atteinte humaine au principe de propriété.
-Pour la féministe et philosophe  originaire d’Angleterre, Mary Wollstonecraft (1759-1797) : « Le mariage est une affirmation de la suprématie de l'homme sur la femme [...] si j'aime un homme, je veux l'aimer en gardant toute ma liberté »[6].
-Le mouvement pour la liberté de l’amour
-À la fin du XIXe siècle, en Europe et en Amérique du Nord, le mouvement en faveur de la liberté amoureuse combine des idées issues de l'anarchisme, du féminisme et de l’utopie du socialisme, de façon à attaquer l’hypocrisie de la morale sexuelle de l'ère victorienne ainsi que les institutions du mariage et de la famille, qui a l’époque sont vues comme un moyen d'asservir les hommes et les femmes.
-Les défenseurs de la liberté amoureuse croient promouvoir, sans intervention de l’État, les unions sexuelles volontaires[8], et suggèrent le droit au plaisir sexuel pour les hommes aussi bien que pour les femmes. Ils soutiennent également les droits des professionnels du sexe et des personnes qui peuvent être homosexuelles.
-Élisée Reclus
-L’un des artisans de la liberté de l’union, le géographe libertaire Élisée Reclus[9] s’unit, en mai 1870, avec sa seconde compagne, Fanny, en un « mariage sous le soleil ».
-Après le décès de Fanny, le 10 octobre 1875 à Zurich, il s'unit, sans formalité civile ou religieuse, librement avec l’amour de sa dernière compagne, Ermance Gonini. D’après les écrits, une déclaration est signé par les deux « époux » et leurs seize témoins[10]. Ils passeronts ensemble les trente dernières années de leurs vies.
-Le 14 octobre 1882, « sans permettre à la loi religieuse et civile de s'en occuper »[10], « dans des conditions de vérité où les fiancés n'eurent point à faire de cérémonies civile ou religieuse en l'honneur d'une loi qui leur paraît injuste ou d'un culte qu'ils ne pratiquent point »[11], il assiste à la libre union de ses deux filles avec des amis de son neveu Paul : Magali avec Paul Régnier et Jeannie avec Léon Cuisinier[12]. À cette occasion, il prononce une allocution dans laquelle sont détaillées ses principales idées sur le mariage et l’éducation des enfants[13] : « Ce n’est point au nom de l’autorité paternelle que je m’adresse à vous, mes filles, et à vous, jeunes hommes qui me permettez de vous donner le nom de fils. Notre titre de parents ne nous fait en rien vos supérieurs et nous n’avons sur vous d’autres droits que ceux de notre profonde affection »[14].
-Conservateurs de l’opposition
-En 1905, lorsqu'Alfred Naquet publie Vers l'union libre[15], les tenants de la conservation de l’opinion, défavorable à l’union amoureuse en dehors des liens du mariage, font transparaître certains de leurs arguments. D’après la plume du philosophe George Fonsegrive : « Réduire le mariage au caprice des sens et proclamer la légitimité de l'union libre, c'est détruire la famille, c'est autoriser les plus graves désordres moraux, c'est ramener l'humanité à la promiscuité barbare [...], c'est rétrograder vers l'animalité »[16],[17].
-En 1907, Léon Blum publie un essai intitulé Du mariage, dans lequel il fait l’éloge d'une sorte de libre union, avant le mariage, des jeunes gens. Il observe que « le mariage n'était pas une institution mauvaise, mais une institution mal réglée et dont on tire un mauvais parti, une institution [...] généralisée à l’excès, convenable à certains cas, à certains moments de la vie, mais non pas à tous »[17]. Les fiançailles constituent précisément une période d'essai, moins contraignante, avant le mariage.
+          <t>Distinction entre concubinage et union libre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le droit français actuel, le concubinage fait l'objet d'une définition restrictivement relative et bénéficie d'un régime juridique, social et fiscal (limité toutefois).
+Le droit à l’union libre n’est pas actuellement notifié : elle ne fait pas l'objet de texte, ni pour l’interdire, ni pour l'autoriser, ni pour la définir.
+Toujours selon ce concept en France, toute personne majeure non unie ou bien unie par un contrat de PaCS ou par le mariage, peut construire sa vie dans la liberté de la façon dont elle la considère, avec une égale liberté de la forme de la relation amoureuse et du nombre de personnes de partage. Sont comprises les relations sexuelles, dès lors que celles-ci font l'objet d'un consentement mutuel. Ce fait, en l’état, peut être qualifié d'« union libre amoureuse ». Ce fondement est modeste et ne peut pas prétendre à apporter de la valeur.
 </t>
         </is>
       </c>
@@ -591,10 +594,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Concept</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Position de l'Église catholique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à une opinion populaire, n’est pas excommuniée une personne catholique divorcée vivant en union libre. Elle ne peut cependant pas recevoir les sacrements, ce qui introduit de facto une interdiction de communier. L'Église n'« [admet] pas aux sacrements les divorcés remariés, parce que leur état et leur condition de vie contredisent objectivement l'union d'amour entre le Christ et l'Église, qui est signifiée et mise en œuvre dans l'Eucharistie. Toutefois, les divorcés remariés, malgré leur situation, continuent d'appartenir à l'Église ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Union_libre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_libre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contrat de mariage par devant nature</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 1787, « Contrat de mariage par devant nature » est le titre d'un conte adressé par Sylvain Maréchal à Lucile Duplessis (la future femme de Camille Desmoulins), alors âgée de dix-sept ans et dont il est amoureux : « Là, sans prêtres et sans notaire, / Sur un autel de gazon frais. / Au milieu d'un bois solitaire, / Ils s'unirent à peu de frais ». Lucile le recopiera dans son cahier.
+L’utopiste et socialiste  gallois Robert Owen (1771-1858) propose une anticipation de l’union libre et utilise également les écrits de Sylvain Marechal « contrat de mariage par devant nature » car il considère le concept exclusif du mariage comme une atteinte humaine au principe de propriété.
+Pour la féministe et philosophe  originaire d’Angleterre, Mary Wollstonecraft (1759-1797) : « Le mariage est une affirmation de la suprématie de l'homme sur la femme [...] si j'aime un homme, je veux l'aimer en gardant toute ma liberté ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Union_libre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_libre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le mouvement pour la liberté de l’amour</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du XIXe siècle, en Europe et en Amérique du Nord, le mouvement en faveur de la liberté amoureuse combine des idées issues de l'anarchisme, du féminisme et de l’utopie du socialisme, de façon à attaquer l’hypocrisie de la morale sexuelle de l'ère victorienne ainsi que les institutions du mariage et de la famille, qui a l’époque sont vues comme un moyen d'asservir les hommes et les femmes.
+Les défenseurs de la liberté amoureuse croient promouvoir, sans intervention de l’État, les unions sexuelles volontaires, et suggèrent le droit au plaisir sexuel pour les hommes aussi bien que pour les femmes. Ils soutiennent également les droits des professionnels du sexe et des personnes qui peuvent être homosexuelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Union_libre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_libre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Élisée Reclus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’un des artisans de la liberté de l’union, le géographe libertaire Élisée Reclus s’unit, en mai 1870, avec sa seconde compagne, Fanny, en un « mariage sous le soleil ».
+Après le décès de Fanny, le 10 octobre 1875 à Zurich, il s'unit, sans formalité civile ou religieuse, librement avec l’amour de sa dernière compagne, Ermance Gonini. D’après les écrits, une déclaration est signé par les deux « époux » et leurs seize témoins. Ils passeronts ensemble les trente dernières années de leurs vies.
+Le 14 octobre 1882, « sans permettre à la loi religieuse et civile de s'en occuper », « dans des conditions de vérité où les fiancés n'eurent point à faire de cérémonies civile ou religieuse en l'honneur d'une loi qui leur paraît injuste ou d'un culte qu'ils ne pratiquent point », il assiste à la libre union de ses deux filles avec des amis de son neveu Paul : Magali avec Paul Régnier et Jeannie avec Léon Cuisinier. À cette occasion, il prononce une allocution dans laquelle sont détaillées ses principales idées sur le mariage et l’éducation des enfants : « Ce n’est point au nom de l’autorité paternelle que je m’adresse à vous, mes filles, et à vous, jeunes hommes qui me permettez de vous donner le nom de fils. Notre titre de parents ne nous fait en rien vos supérieurs et nous n’avons sur vous d’autres droits que ceux de notre profonde affection ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Union_libre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_libre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Conservateurs de l’opposition</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1905, lorsqu'Alfred Naquet publie Vers l'union libre, les tenants de la conservation de l’opinion, défavorable à l’union amoureuse en dehors des liens du mariage, font transparaître certains de leurs arguments. D’après la plume du philosophe George Fonsegrive : « Réduire le mariage au caprice des sens et proclamer la légitimité de l'union libre, c'est détruire la famille, c'est autoriser les plus graves désordres moraux, c'est ramener l'humanité à la promiscuité barbare [...], c'est rétrograder vers l'animalité »,.
+En 1907, Léon Blum publie un essai intitulé Du mariage, dans lequel il fait l’éloge d'une sorte de libre union, avant le mariage, des jeunes gens. Il observe que « le mariage n'était pas une institution mauvaise, mais une institution mal réglée et dont on tire un mauvais parti, une institution [...] généralisée à l’excès, convenable à certains cas, à certains moments de la vie, mais non pas à tous ». Les fiançailles constituent précisément une période d'essai, moins contraignante, avant le mariage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Union_libre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Union_libre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>« [...] Anzoleto lui convenait parfaitement ; comme, depuis six ans, il ne s’était pas écoulé un seul jour sans qu’on les vît ensemble, ne cherchant point le mystère, et ne se querellant jamais, on avait fini par s’habituer à leur union libre et indissoluble. » - George Sand, Consuelo (1843).
 « Le souverain, c’est-à-dire le clergé, ne tolère pas ces unions libres qui abondent malheureusement chez nous. Lorsqu’une fille et un garçon vivent en communauté, la police les guette, les surprend, amène un prêtre et leur inflige la bénédiction nuptiale. » - Edmond About, Rome contemporaine (1861).
